--- a/NformTester/NformTester/Keywordscripts/TST1126_VerifyExternalUserOptionsWithDifferentLanguageOption.xlsx
+++ b/NformTester/NformTester/Keywordscripts/TST1126_VerifyExternalUserOptionsWithDifferentLanguageOption.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7599" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7719" uniqueCount="869">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3769,9 +3769,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>;Clear operation.</t>
-  </si>
-  <si>
     <t>Test Steps</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3832,9 +3829,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>German -- Deutsch</t>
-  </si>
-  <si>
     <t>CloseApp</t>
   </si>
   <si>
@@ -3852,11 +3846,67 @@
     <t>AppStart</t>
   </si>
   <si>
-    <t>10-12</t>
+    <t>Text</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
+    <t>Equal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify the language is changed.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Change language as English.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>English -- English</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Login"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Exit"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Clear up.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Italian -- italiano"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configure_Ita</t>
+  </si>
+  <si>
+    <t>UserOption_Ita</t>
+  </si>
+  <si>
+    <t>General_Ita</t>
+  </si>
+  <si>
+    <t>External_Ita</t>
+  </si>
+  <si>
+    <t>"Login"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Esci"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4033,7 +4083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4045,7 +4095,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4098,7 +4147,63 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4403,16 +4508,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="28.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="15" customWidth="1"/>
     <col min="5" max="5" width="29.75" customWidth="1"/>
     <col min="6" max="6" width="29.25" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -4430,40 +4535,40 @@
         <v>819</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
@@ -4476,7 +4581,7 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>829</v>
       </c>
       <c r="E2" s="3"/>
@@ -4488,20 +4593,20 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>822</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>840</v>
+      <c r="D3" s="11" t="s">
+        <v>839</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
@@ -4511,30 +4616,30 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>843</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="15"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>825</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>831</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -4550,20 +4655,20 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="15"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>41507</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>846</v>
+      <c r="D5" s="13" t="s">
+        <v>845</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -4574,20 +4679,20 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="15"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>41507</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>847</v>
+      <c r="D6" s="13" t="s">
+        <v>846</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4598,69 +4703,67 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="15"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>803</v>
       </c>
       <c r="B7" s="4">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>854</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>830</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
@@ -4670,376 +4773,964 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>830</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>848</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="J9" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>805</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>830</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>830</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>849</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="17"/>
+      <c r="E11" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>850</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>851</v>
-      </c>
-      <c r="F12" s="18">
-        <v>2</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="17"/>
+      <c r="D12" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>855</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>853</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="21" t="s">
-        <v>852</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="17"/>
+      <c r="D13" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="15">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>832</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="17"/>
+      <c r="D14" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>809</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="17"/>
+      <c r="D15" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="J15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="17"/>
+      <c r="D16" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="17"/>
+      <c r="D17" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
         <v>812</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="17"/>
+      <c r="D18" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="F18" s="17">
+        <v>2</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
         <v>813</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="17"/>
+      <c r="D19" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:15" ht="15">
+      <c r="A20" s="21" t="s">
         <v>814</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>805</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="17"/>
+      <c r="D20" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>815</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="3">
         <v>20</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="17"/>
+      <c r="D21" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="17"/>
+      <c r="D22" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="1:15" ht="15">
+    <row r="23" spans="1:15">
       <c r="C23" s="3">
         <v>22</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>842</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="15"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" ht="15">
+      <c r="C24" s="3">
+        <v>23</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="C25" s="3">
+        <v>24</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="C26" s="3">
+        <v>25</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="C27" s="3">
+        <v>26</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="C28" s="3">
+        <v>27</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="C29" s="3">
+        <v>28</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="C30" s="3">
+        <v>29</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="C31" s="3">
+        <v>30</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="C32" s="3">
+        <v>31</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="J32" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="3">
+        <v>32</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="18"/>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" s="3">
+        <v>33</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="C35" s="3">
+        <v>34</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="F35" s="17">
+        <v>2</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="18"/>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="3">
+        <v>35</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37" spans="3:14" ht="15">
+      <c r="C37" s="3">
+        <v>36</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" s="3">
+        <v>37</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="C39" s="3">
+        <v>38</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="18"/>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="C40" s="3">
+        <v>39</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="3:14" ht="15">
+      <c r="C41" s="3">
+        <v>40</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="18"/>
+    </row>
+    <row r="42" spans="3:14">
+      <c r="C42" s="3">
+        <v>41</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="F42" s="17">
+        <v>2</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N23">
-    <cfRule type="cellIs" dxfId="1" priority="21" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N33">
+    <cfRule type="cellIs" dxfId="9" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34:N36">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37:N40">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D7:D13 D15:D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D40 D42 D25:D36 D21:D23 D7:D19 D3:D4">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E42">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F42">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28052,7 +28743,7 @@
       <c r="A4" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>825</v>
       </c>
     </row>
@@ -28060,7 +28751,7 @@
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>40864</v>
       </c>
     </row>
@@ -28068,7 +28759,7 @@
       <c r="A6" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>41045</v>
       </c>
     </row>
@@ -28090,59 +28781,59 @@
       <c r="A9" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>813</v>
       </c>
     </row>
@@ -28150,7 +28841,7 @@
       <c r="A19" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>805</v>
       </c>
     </row>
@@ -28158,105 +28849,105 @@
       <c r="A20" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
